--- a/data/defaults.xlsx
+++ b/data/defaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B25DA1-8282-40D6-AA4D-E9A92A57CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8BECE2-E184-4FAB-BD3E-C3C0B8441235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="1250" windowWidth="27150" windowHeight="18170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="defaults" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>type</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>potdep_star</t>
+  </si>
+  <si>
+    <t>ESP</t>
   </si>
 </sst>
 </file>
@@ -1066,34 +1069,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:Q21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1101,52 +1090,55 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1198,8 +1190,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1246,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1304,8 +1302,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1313,52 +1314,55 @@
         <v>18</v>
       </c>
       <c r="C5">
+        <v>0.72</v>
+      </c>
+      <c r="D5">
         <v>1.17</v>
-      </c>
-      <c r="D5">
-        <v>0.72</v>
       </c>
       <c r="E5">
         <v>1.57</v>
       </c>
       <c r="F5">
+        <v>1.19</v>
+      </c>
+      <c r="G5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.85</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5">
+        <v>0.39</v>
+      </c>
+      <c r="M5">
+        <v>1.22</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.39</v>
-      </c>
-      <c r="J5">
-        <v>0.6</v>
-      </c>
-      <c r="K5">
+      <c r="O5">
         <v>0.27</v>
-      </c>
-      <c r="L5">
-        <v>0.85</v>
-      </c>
-      <c r="M5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5">
-        <v>1.22</v>
-      </c>
-      <c r="O5">
-        <v>2.5499999999999998</v>
       </c>
       <c r="P5">
         <v>1.34</v>
       </c>
       <c r="Q5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="R5">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1366,52 +1370,55 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="D6">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>1.57</v>
       </c>
       <c r="F6">
-        <v>0.8</v>
+        <v>1.19</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H6">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I6">
-        <v>0.8</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
       <c r="M6">
-        <v>0.8</v>
+        <v>1.22</v>
       </c>
       <c r="N6">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
       <c r="P6">
-        <v>0.8</v>
+        <v>1.34</v>
       </c>
       <c r="Q6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="R6">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1463,8 +1470,11 @@
       <c r="Q7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1516,8 +1526,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1534,43 +1547,46 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="F9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G9">
         <v>1.2E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N9">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I9">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J9">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K9">
+      <c r="O9">
         <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="M9">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="N9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="O9">
-        <v>1.2E-2</v>
       </c>
       <c r="P9">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R9">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1622,8 +1638,11 @@
       <c r="Q10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1675,8 +1694,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1684,40 +1706,40 @@
         <v>18</v>
       </c>
       <c r="C12">
+        <v>0.51</v>
+      </c>
+      <c r="D12">
         <v>0.68</v>
-      </c>
-      <c r="D12">
-        <v>0.51</v>
       </c>
       <c r="E12">
         <v>0.16</v>
       </c>
       <c r="F12">
+        <v>0.16</v>
+      </c>
+      <c r="G12">
         <v>0.66</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0.49</v>
+      </c>
+      <c r="I12">
+        <v>0.73</v>
+      </c>
+      <c r="J12">
+        <v>0.34</v>
+      </c>
+      <c r="K12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M12">
+        <v>0.22</v>
+      </c>
+      <c r="N12">
         <v>0.2</v>
-      </c>
-      <c r="H12">
-        <v>0.73</v>
-      </c>
-      <c r="I12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K12">
-        <v>0.2</v>
-      </c>
-      <c r="L12">
-        <v>0.34</v>
-      </c>
-      <c r="M12">
-        <v>0.49</v>
-      </c>
-      <c r="N12">
-        <v>0.22</v>
       </c>
       <c r="O12">
         <v>0.2</v>
@@ -1728,8 +1750,11 @@
       <c r="Q12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1781,8 +1806,11 @@
       <c r="Q13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1834,8 +1862,11 @@
       <c r="Q14">
         <v>1.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1887,8 +1918,11 @@
       <c r="Q15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +1974,11 @@
       <c r="Q16">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1993,8 +2030,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2046,8 +2086,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2099,8 +2142,11 @@
       <c r="Q19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2108,52 +2154,55 @@
         <v>18</v>
       </c>
       <c r="C20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D20">
         <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D20">
-        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E20">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="F20">
+        <v>0.129</v>
+      </c>
+      <c r="G20">
         <v>0.04</v>
       </c>
-      <c r="G20">
-        <v>1.0999999999999999E-2</v>
-      </c>
       <c r="H20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I20">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K20">
-        <v>0.05</v>
       </c>
       <c r="L20">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="M20">
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N20">
-        <v>0.06</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="O20">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="P20">
         <v>0.05</v>
       </c>
       <c r="Q20">
+        <v>0.03</v>
+      </c>
+      <c r="R20">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2205,8 +2254,11 @@
       <c r="Q21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2258,8 +2310,11 @@
       <c r="Q22">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2311,8 +2366,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2373,10 +2434,10 @@
         <v>18</v>
       </c>
       <c r="C25">
+        <v>0.2</v>
+      </c>
+      <c r="D25">
         <v>0.15</v>
-      </c>
-      <c r="D25">
-        <v>0.2</v>
       </c>
       <c r="E25">
         <v>0.15</v>
@@ -2415,10 +2476,13 @@
         <v>0.2</v>
       </c>
       <c r="Q25">
+        <v>0.15</v>
+      </c>
+      <c r="R25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2470,8 +2534,11 @@
       <c r="Q26">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2523,8 +2590,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2541,34 +2611,34 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G28">
         <v>1.6E-2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N28">
         <v>0.03</v>
       </c>
-      <c r="H28">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I28">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J28">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="K28">
+      <c r="O28">
         <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="L28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M28">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="N28">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="O28">
-        <v>1.6E-2</v>
       </c>
       <c r="P28">
         <v>1.7999999999999999E-2</v>
@@ -2576,8 +2646,11 @@
       <c r="Q28">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2629,8 +2702,11 @@
       <c r="Q29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2682,8 +2758,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2735,8 +2814,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2788,8 +2870,11 @@
       <c r="Q32">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2841,8 +2926,11 @@
       <c r="Q33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2850,40 +2938,40 @@
         <v>18</v>
       </c>
       <c r="C34">
+        <v>0.24</v>
+      </c>
+      <c r="D34">
         <v>0.27</v>
-      </c>
-      <c r="D34">
-        <v>0.24</v>
       </c>
       <c r="E34">
         <v>0.22</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>0.71</v>
+      </c>
+      <c r="I34">
+        <v>0.53</v>
+      </c>
+      <c r="J34">
+        <v>0.11</v>
+      </c>
+      <c r="K34">
+        <v>0.47</v>
+      </c>
+      <c r="L34">
+        <v>0.41</v>
+      </c>
+      <c r="M34">
+        <v>0.16</v>
+      </c>
+      <c r="N34">
         <v>0.35</v>
-      </c>
-      <c r="H34">
-        <v>0.53</v>
-      </c>
-      <c r="I34">
-        <v>0.41</v>
-      </c>
-      <c r="J34">
-        <v>0.47</v>
-      </c>
-      <c r="K34">
-        <v>0.2</v>
-      </c>
-      <c r="L34">
-        <v>0.11</v>
-      </c>
-      <c r="M34">
-        <v>0.71</v>
-      </c>
-      <c r="N34">
-        <v>0.16</v>
       </c>
       <c r="O34">
         <v>0.2</v>
@@ -2894,8 +2982,11 @@
       <c r="Q34">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2903,41 +2994,41 @@
         <v>18</v>
       </c>
       <c r="C35">
+        <v>0.26</v>
+      </c>
+      <c r="D35">
         <v>0.33</v>
-      </c>
-      <c r="D35">
-        <v>0.26</v>
       </c>
       <c r="E35">
         <v>0.2</v>
       </c>
       <c r="F35">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G35">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <v>0.64</v>
+      </c>
+      <c r="I35">
+        <v>0.35</v>
+      </c>
+      <c r="J35">
+        <v>0.19</v>
+      </c>
+      <c r="K35">
+        <v>0.34</v>
+      </c>
+      <c r="L35">
+        <v>0.41</v>
+      </c>
+      <c r="M35">
+        <v>0.26</v>
+      </c>
+      <c r="N35">
         <v>0.21</v>
       </c>
-      <c r="H35">
-        <v>0.35</v>
-      </c>
-      <c r="I35">
-        <v>0.41</v>
-      </c>
-      <c r="J35">
-        <v>0.34</v>
-      </c>
-      <c r="K35">
-        <v>0.5</v>
-      </c>
-      <c r="L35">
-        <v>0.19</v>
-      </c>
-      <c r="M35">
-        <v>0.64</v>
-      </c>
-      <c r="N35">
-        <v>0.26</v>
-      </c>
       <c r="O35">
         <v>0.5</v>
       </c>
@@ -2947,8 +3038,11 @@
       <c r="Q35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3000,8 +3094,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3053,8 +3150,11 @@
       <c r="Q37">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R37">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3106,8 +3206,11 @@
       <c r="Q38">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R38">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3159,8 +3262,11 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3212,8 +3318,11 @@
       <c r="Q40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3265,8 +3374,11 @@
       <c r="Q41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -3318,8 +3430,11 @@
       <c r="Q42">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3371,8 +3486,11 @@
       <c r="Q43">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3424,8 +3542,11 @@
       <c r="Q44">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3477,8 +3598,11 @@
       <c r="Q45">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3530,8 +3654,11 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3583,8 +3710,11 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3636,8 +3766,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3687,6 +3820,9 @@
         <v>0</v>
       </c>
       <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
         <v>0</v>
       </c>
     </row>

--- a/data/defaults.xlsx
+++ b/data/defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8BECE2-E184-4FAB-BD3E-C3C0B8441235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52E69A2-1F62-4F20-A3C8-93192FBE82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1250" windowWidth="27150" windowHeight="18170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="1500" windowWidth="31090" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="defaults" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Xavier Timbeau</author>
+  </authors>
+  <commentList>
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{F32701F5-C58B-4560-AC67-BD265135FAEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Xavier Timbeau:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>type</t>
   </si>
@@ -229,13 +263,37 @@
   </si>
   <si>
     <t>ESP</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>MLT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +427,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1068,21 +1139,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="6.81640625" customWidth="1"/>
+    <col min="23" max="26" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1126,19 +1199,43 @@
         <v>5</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1193,8 +1290,32 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1370,32 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1305,8 +1450,32 @@
       <c r="R4">
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1314,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="D5">
         <v>1.17</v>
@@ -1347,22 +1516,46 @@
         <v>1.22</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O5">
+        <v>0.71</v>
+      </c>
+      <c r="P5">
+        <v>0.6</v>
+      </c>
+      <c r="Q5">
+        <v>0.441</v>
+      </c>
+      <c r="R5">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.2</v>
+      </c>
+      <c r="U5">
+        <v>0.624</v>
+      </c>
+      <c r="V5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="W5">
         <v>0.27</v>
       </c>
-      <c r="P5">
+      <c r="X5">
         <v>1.34</v>
       </c>
-      <c r="Q5">
+      <c r="Y5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="R5">
+      <c r="Z5">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1370,7 +1563,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="D6">
         <v>1.17</v>
@@ -1403,22 +1596,46 @@
         <v>1.22</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O6">
+        <v>0.71</v>
+      </c>
+      <c r="P6">
+        <v>0.6</v>
+      </c>
+      <c r="Q6">
+        <v>0.441</v>
+      </c>
+      <c r="R6">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0.2</v>
+      </c>
+      <c r="U6">
+        <v>0.624</v>
+      </c>
+      <c r="V6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="W6">
         <v>0.27</v>
       </c>
-      <c r="P6">
+      <c r="X6">
         <v>1.34</v>
       </c>
-      <c r="Q6">
+      <c r="Y6">
         <v>2.5499999999999998</v>
       </c>
-      <c r="R6">
+      <c r="Z6">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1473,8 +1690,32 @@
       <c r="R7">
         <v>0.5</v>
       </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1529,8 +1770,32 @@
       <c r="R8">
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1541,28 +1806,28 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>8.8999999999999999E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F9">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H9">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J9">
-        <v>1.0999999999999999E-2</v>
-      </c>
       <c r="K9">
-        <v>4.2999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L9">
         <v>2.1999999999999999E-2</v>
@@ -1571,22 +1836,46 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="N9">
-        <v>7.3000000000000001E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="O9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.03</v>
+      </c>
+      <c r="Q9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R9">
+        <v>0.03</v>
+      </c>
+      <c r="S9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="T9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="V9">
+        <v>0.03</v>
+      </c>
+      <c r="W9">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P9">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Q9">
+      <c r="X9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Y9">
         <v>1.2E-2</v>
       </c>
-      <c r="R9">
-        <v>7.7000000000000002E-3</v>
+      <c r="Z9">
+        <v>1.47E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1641,8 +1930,32 @@
       <c r="R10">
         <v>0.01</v>
       </c>
+      <c r="S10">
+        <v>0.01</v>
+      </c>
+      <c r="T10">
+        <v>0.01</v>
+      </c>
+      <c r="U10">
+        <v>0.01</v>
+      </c>
+      <c r="V10">
+        <v>0.01</v>
+      </c>
+      <c r="W10">
+        <v>0.01</v>
+      </c>
+      <c r="X10">
+        <v>0.01</v>
+      </c>
+      <c r="Y10">
+        <v>0.01</v>
+      </c>
+      <c r="Z10">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1697,8 +2010,32 @@
       <c r="R11">
         <v>0</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1753,8 +2090,32 @@
       <c r="R12">
         <v>0.2</v>
       </c>
+      <c r="S12">
+        <v>0.2</v>
+      </c>
+      <c r="T12">
+        <v>0.2</v>
+      </c>
+      <c r="U12">
+        <v>0.2</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.2</v>
+      </c>
+      <c r="X12">
+        <v>0.2</v>
+      </c>
+      <c r="Y12">
+        <v>0.2</v>
+      </c>
+      <c r="Z12">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1809,8 +2170,32 @@
       <c r="R13">
         <v>0.1</v>
       </c>
+      <c r="S13">
+        <v>0.1</v>
+      </c>
+      <c r="T13">
+        <v>0.1</v>
+      </c>
+      <c r="U13">
+        <v>0.1</v>
+      </c>
+      <c r="V13">
+        <v>0.1</v>
+      </c>
+      <c r="W13">
+        <v>0.1</v>
+      </c>
+      <c r="X13">
+        <v>0.1</v>
+      </c>
+      <c r="Y13">
+        <v>0.1</v>
+      </c>
+      <c r="Z13">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1865,8 +2250,32 @@
       <c r="R14">
         <v>1.7500000000000002E-2</v>
       </c>
+      <c r="S14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="T14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="U14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="V14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="W14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="X14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="Y14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="Z14">
+        <v>1.7500000000000002E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1921,8 +2330,32 @@
       <c r="R15">
         <v>5</v>
       </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1977,8 +2410,32 @@
       <c r="R16">
         <v>0.04</v>
       </c>
+      <c r="S16">
+        <v>0.04</v>
+      </c>
+      <c r="T16">
+        <v>0.04</v>
+      </c>
+      <c r="U16">
+        <v>0.04</v>
+      </c>
+      <c r="V16">
+        <v>0.04</v>
+      </c>
+      <c r="W16">
+        <v>0.04</v>
+      </c>
+      <c r="X16">
+        <v>0.04</v>
+      </c>
+      <c r="Y16">
+        <v>0.04</v>
+      </c>
+      <c r="Z16">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2033,8 +2490,32 @@
       <c r="R17">
         <v>0</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2089,8 +2570,32 @@
       <c r="R18">
         <v>0</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2145,8 +2650,32 @@
       <c r="R19">
         <v>20</v>
       </c>
+      <c r="S19">
+        <v>20</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2187,22 +2716,46 @@
         <v>0.06</v>
       </c>
       <c r="N20">
-        <v>1.0999999999999999E-2</v>
+        <v>0.124</v>
       </c>
       <c r="O20">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="P20">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R20">
+        <v>0.06</v>
+      </c>
+      <c r="S20">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T20">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="U20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="V20">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="W20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="X20">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Y20">
         <v>0.03</v>
       </c>
-      <c r="R20">
-        <v>0.05</v>
+      <c r="Z20">
+        <v>4.7E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2257,8 +2810,32 @@
       <c r="R21">
         <v>0.5</v>
       </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2313,8 +2890,32 @@
       <c r="R22">
         <v>0.7</v>
       </c>
+      <c r="S22">
+        <v>0.7</v>
+      </c>
+      <c r="T22">
+        <v>0.7</v>
+      </c>
+      <c r="U22">
+        <v>0.7</v>
+      </c>
+      <c r="V22">
+        <v>0.7</v>
+      </c>
+      <c r="W22">
+        <v>0.7</v>
+      </c>
+      <c r="X22">
+        <v>0.7</v>
+      </c>
+      <c r="Y22">
+        <v>0.7</v>
+      </c>
+      <c r="Z22">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2369,8 +2970,32 @@
       <c r="R23">
         <v>0</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2425,8 +3050,32 @@
       <c r="R24">
         <v>0</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2473,16 +3122,40 @@
         <v>0.15</v>
       </c>
       <c r="P25">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="Q25">
         <v>0.15</v>
       </c>
       <c r="R25">
+        <v>0.15</v>
+      </c>
+      <c r="S25">
+        <v>0.15</v>
+      </c>
+      <c r="T25">
+        <v>0.15</v>
+      </c>
+      <c r="U25">
+        <v>0.15</v>
+      </c>
+      <c r="V25">
+        <v>0.15</v>
+      </c>
+      <c r="W25">
+        <v>0.15</v>
+      </c>
+      <c r="X25">
         <v>0.2</v>
       </c>
+      <c r="Y25">
+        <v>0.15</v>
+      </c>
+      <c r="Z25">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2537,8 +3210,32 @@
       <c r="R26">
         <v>0.7</v>
       </c>
+      <c r="S26">
+        <v>0.7</v>
+      </c>
+      <c r="T26">
+        <v>0.7</v>
+      </c>
+      <c r="U26">
+        <v>0.7</v>
+      </c>
+      <c r="V26">
+        <v>0.7</v>
+      </c>
+      <c r="W26">
+        <v>0.7</v>
+      </c>
+      <c r="X26">
+        <v>0.7</v>
+      </c>
+      <c r="Y26">
+        <v>0.7</v>
+      </c>
+      <c r="Z26">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2593,8 +3290,32 @@
       <c r="R27">
         <v>0</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2638,19 +3359,43 @@
         <v>0.03</v>
       </c>
       <c r="O28">
+        <v>0.03</v>
+      </c>
+      <c r="P28">
+        <v>0.03</v>
+      </c>
+      <c r="Q28">
+        <v>0.03</v>
+      </c>
+      <c r="R28">
+        <v>0.03</v>
+      </c>
+      <c r="S28">
+        <v>0.03</v>
+      </c>
+      <c r="T28">
+        <v>0.03</v>
+      </c>
+      <c r="U28">
+        <v>0.03</v>
+      </c>
+      <c r="V28">
+        <v>0.03</v>
+      </c>
+      <c r="W28">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P28">
+      <c r="X28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Q28">
+      <c r="Y28">
         <v>1.6E-2</v>
       </c>
-      <c r="R28">
+      <c r="Z28">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2705,8 +3450,32 @@
       <c r="R29">
         <v>1</v>
       </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2761,8 +3530,32 @@
       <c r="R30">
         <v>0</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2817,8 +3610,32 @@
       <c r="R31">
         <v>0</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2873,8 +3690,32 @@
       <c r="R32">
         <v>0.01</v>
       </c>
+      <c r="S32">
+        <v>0.01</v>
+      </c>
+      <c r="T32">
+        <v>0.01</v>
+      </c>
+      <c r="U32">
+        <v>0.01</v>
+      </c>
+      <c r="V32">
+        <v>0.01</v>
+      </c>
+      <c r="W32">
+        <v>0.01</v>
+      </c>
+      <c r="X32">
+        <v>0.01</v>
+      </c>
+      <c r="Y32">
+        <v>0.01</v>
+      </c>
+      <c r="Z32">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2929,8 +3770,32 @@
       <c r="R33">
         <v>8</v>
       </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
+      </c>
+      <c r="U33">
+        <v>8</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="W33">
+        <v>8</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>8</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2974,19 +3839,43 @@
         <v>0.35</v>
       </c>
       <c r="O34">
+        <v>0.35</v>
+      </c>
+      <c r="P34">
+        <v>0.35</v>
+      </c>
+      <c r="Q34">
+        <v>0.35</v>
+      </c>
+      <c r="R34">
+        <v>0.35</v>
+      </c>
+      <c r="S34">
+        <v>0.35</v>
+      </c>
+      <c r="T34">
+        <v>0.35</v>
+      </c>
+      <c r="U34">
+        <v>0.35</v>
+      </c>
+      <c r="V34">
+        <v>0.35</v>
+      </c>
+      <c r="W34">
         <v>0.2</v>
       </c>
-      <c r="P34">
+      <c r="X34">
         <v>0.2</v>
       </c>
-      <c r="Q34">
+      <c r="Y34">
         <v>0.2</v>
       </c>
-      <c r="R34">
+      <c r="Z34">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3030,19 +3919,43 @@
         <v>0.21</v>
       </c>
       <c r="O35">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="P35">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="R35">
+        <v>0.21</v>
+      </c>
+      <c r="S35">
+        <v>0.21</v>
+      </c>
+      <c r="T35">
+        <v>0.21</v>
+      </c>
+      <c r="U35">
+        <v>0.21</v>
+      </c>
+      <c r="V35">
+        <v>0.21</v>
+      </c>
+      <c r="W35">
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35">
+        <v>0.5</v>
+      </c>
+      <c r="Z35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3097,8 +4010,32 @@
       <c r="R36">
         <v>0</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3153,8 +4090,32 @@
       <c r="R37">
         <v>-0.1</v>
       </c>
+      <c r="S37">
+        <v>-0.1</v>
+      </c>
+      <c r="T37">
+        <v>-0.1</v>
+      </c>
+      <c r="U37">
+        <v>-0.1</v>
+      </c>
+      <c r="V37">
+        <v>-0.1</v>
+      </c>
+      <c r="W37">
+        <v>-0.1</v>
+      </c>
+      <c r="X37">
+        <v>-0.1</v>
+      </c>
+      <c r="Y37">
+        <v>-0.1</v>
+      </c>
+      <c r="Z37">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3209,8 +4170,32 @@
       <c r="R38">
         <v>-0.5</v>
       </c>
+      <c r="S38">
+        <v>-0.5</v>
+      </c>
+      <c r="T38">
+        <v>-0.5</v>
+      </c>
+      <c r="U38">
+        <v>-0.5</v>
+      </c>
+      <c r="V38">
+        <v>-0.5</v>
+      </c>
+      <c r="W38">
+        <v>-0.5</v>
+      </c>
+      <c r="X38">
+        <v>-0.5</v>
+      </c>
+      <c r="Y38">
+        <v>-0.5</v>
+      </c>
+      <c r="Z38">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3265,8 +4250,32 @@
       <c r="R39">
         <v>0</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3321,8 +4330,32 @@
       <c r="R40">
         <v>0.5</v>
       </c>
+      <c r="S40">
+        <v>0.5</v>
+      </c>
+      <c r="T40">
+        <v>0.5</v>
+      </c>
+      <c r="U40">
+        <v>0.5</v>
+      </c>
+      <c r="V40">
+        <v>0.5</v>
+      </c>
+      <c r="W40">
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+      <c r="Y40">
+        <v>0.5</v>
+      </c>
+      <c r="Z40">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3377,8 +4410,32 @@
       <c r="R41">
         <v>0.2</v>
       </c>
+      <c r="S41">
+        <v>0.2</v>
+      </c>
+      <c r="T41">
+        <v>0.2</v>
+      </c>
+      <c r="U41">
+        <v>0.2</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.2</v>
+      </c>
+      <c r="X41">
+        <v>0.2</v>
+      </c>
+      <c r="Y41">
+        <v>0.2</v>
+      </c>
+      <c r="Z41">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -3433,8 +4490,32 @@
       <c r="R42">
         <v>0.1</v>
       </c>
+      <c r="S42">
+        <v>0.1</v>
+      </c>
+      <c r="T42">
+        <v>0.1</v>
+      </c>
+      <c r="U42">
+        <v>0.1</v>
+      </c>
+      <c r="V42">
+        <v>0.1</v>
+      </c>
+      <c r="W42">
+        <v>0.1</v>
+      </c>
+      <c r="X42">
+        <v>0.1</v>
+      </c>
+      <c r="Y42">
+        <v>0.1</v>
+      </c>
+      <c r="Z42">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3489,8 +4570,32 @@
       <c r="R43">
         <v>0.7</v>
       </c>
+      <c r="S43">
+        <v>0.7</v>
+      </c>
+      <c r="T43">
+        <v>0.7</v>
+      </c>
+      <c r="U43">
+        <v>0.7</v>
+      </c>
+      <c r="V43">
+        <v>0.7</v>
+      </c>
+      <c r="W43">
+        <v>0.7</v>
+      </c>
+      <c r="X43">
+        <v>0.7</v>
+      </c>
+      <c r="Y43">
+        <v>0.7</v>
+      </c>
+      <c r="Z43">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3545,8 +4650,32 @@
       <c r="R44">
         <v>0.1</v>
       </c>
+      <c r="S44">
+        <v>0.1</v>
+      </c>
+      <c r="T44">
+        <v>0.1</v>
+      </c>
+      <c r="U44">
+        <v>0.1</v>
+      </c>
+      <c r="V44">
+        <v>0.1</v>
+      </c>
+      <c r="W44">
+        <v>0.1</v>
+      </c>
+      <c r="X44">
+        <v>0.1</v>
+      </c>
+      <c r="Y44">
+        <v>0.1</v>
+      </c>
+      <c r="Z44">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3601,8 +4730,32 @@
       <c r="R45">
         <v>0.4</v>
       </c>
+      <c r="S45">
+        <v>0.4</v>
+      </c>
+      <c r="T45">
+        <v>0.4</v>
+      </c>
+      <c r="U45">
+        <v>0.4</v>
+      </c>
+      <c r="V45">
+        <v>0.4</v>
+      </c>
+      <c r="W45">
+        <v>0.4</v>
+      </c>
+      <c r="X45">
+        <v>0.4</v>
+      </c>
+      <c r="Y45">
+        <v>0.4</v>
+      </c>
+      <c r="Z45">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3657,8 +4810,32 @@
       <c r="R46">
         <v>0</v>
       </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3713,8 +4890,32 @@
       <c r="R47">
         <v>0</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3769,8 +4970,32 @@
       <c r="R48">
         <v>0</v>
       </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3823,10 +5048,195 @@
         <v>0</v>
       </c>
       <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/defaults.xlsx
+++ b/data/defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8BECE2-E184-4FAB-BD3E-C3C0B8441235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75B1A8-A7A3-42E5-A808-CF7FE1DE841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1250" windowWidth="27150" windowHeight="18170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-210" yWindow="440" windowWidth="21690" windowHeight="20210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="defaults" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Xavier Timbeau</author>
+  </authors>
+  <commentList>
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{F32701F5-C58B-4560-AC67-BD265135FAEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Xavier Timbeau:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>type</t>
   </si>
@@ -229,13 +263,37 @@
   </si>
   <si>
     <t>ESP</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>MLT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +427,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1068,21 +1139,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="6.81640625" customWidth="1"/>
+    <col min="23" max="26" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1126,19 +1199,43 @@
         <v>5</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1193,8 +1290,32 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1370,32 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1305,8 +1450,32 @@
       <c r="R4">
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1350,19 +1519,43 @@
         <v>2</v>
       </c>
       <c r="O5">
+        <v>0.71</v>
+      </c>
+      <c r="P5">
+        <v>0.6</v>
+      </c>
+      <c r="Q5">
+        <v>0.441</v>
+      </c>
+      <c r="R5">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.2</v>
+      </c>
+      <c r="U5">
+        <v>0.624</v>
+      </c>
+      <c r="V5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="W5">
         <v>0.27</v>
       </c>
-      <c r="P5">
+      <c r="X5">
         <v>1.34</v>
       </c>
-      <c r="Q5">
+      <c r="Y5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="R5">
+      <c r="Z5">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1406,19 +1599,43 @@
         <v>2</v>
       </c>
       <c r="O6">
+        <v>0.71</v>
+      </c>
+      <c r="P6">
+        <v>0.6</v>
+      </c>
+      <c r="Q6">
+        <v>0.441</v>
+      </c>
+      <c r="R6">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0.2</v>
+      </c>
+      <c r="U6">
+        <v>0.624</v>
+      </c>
+      <c r="V6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="W6">
         <v>0.27</v>
       </c>
-      <c r="P6">
+      <c r="X6">
         <v>1.34</v>
       </c>
-      <c r="Q6">
+      <c r="Y6">
         <v>2.5499999999999998</v>
       </c>
-      <c r="R6">
+      <c r="Z6">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1473,8 +1690,32 @@
       <c r="R7">
         <v>0.5</v>
       </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1529,8 +1770,32 @@
       <c r="R8">
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1541,28 +1806,28 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>8.8999999999999999E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F9">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H9">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J9">
-        <v>1.0999999999999999E-2</v>
-      </c>
       <c r="K9">
-        <v>4.2999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L9">
         <v>2.1999999999999999E-2</v>
@@ -1571,22 +1836,46 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="N9">
-        <v>7.3000000000000001E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="O9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.03</v>
+      </c>
+      <c r="Q9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R9">
+        <v>0.03</v>
+      </c>
+      <c r="S9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="T9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="V9">
+        <v>0.03</v>
+      </c>
+      <c r="W9">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P9">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Q9">
+      <c r="X9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Y9">
         <v>1.2E-2</v>
       </c>
-      <c r="R9">
-        <v>7.7000000000000002E-3</v>
+      <c r="Z9">
+        <v>1.47E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1641,8 +1930,32 @@
       <c r="R10">
         <v>0.01</v>
       </c>
+      <c r="S10">
+        <v>0.01</v>
+      </c>
+      <c r="T10">
+        <v>0.01</v>
+      </c>
+      <c r="U10">
+        <v>0.01</v>
+      </c>
+      <c r="V10">
+        <v>0.01</v>
+      </c>
+      <c r="W10">
+        <v>0.01</v>
+      </c>
+      <c r="X10">
+        <v>0.01</v>
+      </c>
+      <c r="Y10">
+        <v>0.01</v>
+      </c>
+      <c r="Z10">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1697,8 +2010,32 @@
       <c r="R11">
         <v>0</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1753,8 +2090,32 @@
       <c r="R12">
         <v>0.2</v>
       </c>
+      <c r="S12">
+        <v>0.2</v>
+      </c>
+      <c r="T12">
+        <v>0.2</v>
+      </c>
+      <c r="U12">
+        <v>0.2</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.2</v>
+      </c>
+      <c r="X12">
+        <v>0.2</v>
+      </c>
+      <c r="Y12">
+        <v>0.2</v>
+      </c>
+      <c r="Z12">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1809,8 +2170,32 @@
       <c r="R13">
         <v>0.1</v>
       </c>
+      <c r="S13">
+        <v>0.1</v>
+      </c>
+      <c r="T13">
+        <v>0.1</v>
+      </c>
+      <c r="U13">
+        <v>0.1</v>
+      </c>
+      <c r="V13">
+        <v>0.1</v>
+      </c>
+      <c r="W13">
+        <v>0.1</v>
+      </c>
+      <c r="X13">
+        <v>0.1</v>
+      </c>
+      <c r="Y13">
+        <v>0.1</v>
+      </c>
+      <c r="Z13">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1865,8 +2250,32 @@
       <c r="R14">
         <v>1.7500000000000002E-2</v>
       </c>
+      <c r="S14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="T14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="U14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="V14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="W14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="X14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="Y14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="Z14">
+        <v>1.7500000000000002E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1921,8 +2330,32 @@
       <c r="R15">
         <v>5</v>
       </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1977,8 +2410,32 @@
       <c r="R16">
         <v>0.04</v>
       </c>
+      <c r="S16">
+        <v>0.04</v>
+      </c>
+      <c r="T16">
+        <v>0.04</v>
+      </c>
+      <c r="U16">
+        <v>0.04</v>
+      </c>
+      <c r="V16">
+        <v>0.04</v>
+      </c>
+      <c r="W16">
+        <v>0.04</v>
+      </c>
+      <c r="X16">
+        <v>0.04</v>
+      </c>
+      <c r="Y16">
+        <v>0.04</v>
+      </c>
+      <c r="Z16">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2033,8 +2490,32 @@
       <c r="R17">
         <v>0</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2089,8 +2570,32 @@
       <c r="R18">
         <v>0</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2145,8 +2650,32 @@
       <c r="R19">
         <v>20</v>
       </c>
+      <c r="S19">
+        <v>20</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2187,22 +2716,46 @@
         <v>0.06</v>
       </c>
       <c r="N20">
-        <v>1.0999999999999999E-2</v>
+        <v>0.124</v>
       </c>
       <c r="O20">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="P20">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R20">
+        <v>0.06</v>
+      </c>
+      <c r="S20">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T20">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="U20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="V20">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="W20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="X20">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Y20">
         <v>0.03</v>
       </c>
-      <c r="R20">
-        <v>0.05</v>
+      <c r="Z20">
+        <v>4.7E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2257,8 +2810,32 @@
       <c r="R21">
         <v>0.5</v>
       </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2313,8 +2890,32 @@
       <c r="R22">
         <v>0.7</v>
       </c>
+      <c r="S22">
+        <v>0.7</v>
+      </c>
+      <c r="T22">
+        <v>0.7</v>
+      </c>
+      <c r="U22">
+        <v>0.7</v>
+      </c>
+      <c r="V22">
+        <v>0.7</v>
+      </c>
+      <c r="W22">
+        <v>0.7</v>
+      </c>
+      <c r="X22">
+        <v>0.7</v>
+      </c>
+      <c r="Y22">
+        <v>0.7</v>
+      </c>
+      <c r="Z22">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2369,8 +2970,32 @@
       <c r="R23">
         <v>0</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2425,8 +3050,32 @@
       <c r="R24">
         <v>0</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2473,16 +3122,40 @@
         <v>0.15</v>
       </c>
       <c r="P25">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="Q25">
         <v>0.15</v>
       </c>
       <c r="R25">
+        <v>0.15</v>
+      </c>
+      <c r="S25">
+        <v>0.15</v>
+      </c>
+      <c r="T25">
+        <v>0.15</v>
+      </c>
+      <c r="U25">
+        <v>0.15</v>
+      </c>
+      <c r="V25">
+        <v>0.15</v>
+      </c>
+      <c r="W25">
+        <v>0.15</v>
+      </c>
+      <c r="X25">
         <v>0.2</v>
       </c>
+      <c r="Y25">
+        <v>0.15</v>
+      </c>
+      <c r="Z25">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2537,8 +3210,32 @@
       <c r="R26">
         <v>0.7</v>
       </c>
+      <c r="S26">
+        <v>0.7</v>
+      </c>
+      <c r="T26">
+        <v>0.7</v>
+      </c>
+      <c r="U26">
+        <v>0.7</v>
+      </c>
+      <c r="V26">
+        <v>0.7</v>
+      </c>
+      <c r="W26">
+        <v>0.7</v>
+      </c>
+      <c r="X26">
+        <v>0.7</v>
+      </c>
+      <c r="Y26">
+        <v>0.7</v>
+      </c>
+      <c r="Z26">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2593,8 +3290,32 @@
       <c r="R27">
         <v>0</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2638,19 +3359,43 @@
         <v>0.03</v>
       </c>
       <c r="O28">
+        <v>0.03</v>
+      </c>
+      <c r="P28">
+        <v>0.03</v>
+      </c>
+      <c r="Q28">
+        <v>0.03</v>
+      </c>
+      <c r="R28">
+        <v>0.03</v>
+      </c>
+      <c r="S28">
+        <v>0.03</v>
+      </c>
+      <c r="T28">
+        <v>0.03</v>
+      </c>
+      <c r="U28">
+        <v>0.03</v>
+      </c>
+      <c r="V28">
+        <v>0.03</v>
+      </c>
+      <c r="W28">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P28">
+      <c r="X28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Q28">
+      <c r="Y28">
         <v>1.6E-2</v>
       </c>
-      <c r="R28">
+      <c r="Z28">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2705,8 +3450,32 @@
       <c r="R29">
         <v>1</v>
       </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2761,8 +3530,32 @@
       <c r="R30">
         <v>0</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2817,8 +3610,32 @@
       <c r="R31">
         <v>0</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2873,8 +3690,32 @@
       <c r="R32">
         <v>0.01</v>
       </c>
+      <c r="S32">
+        <v>0.01</v>
+      </c>
+      <c r="T32">
+        <v>0.01</v>
+      </c>
+      <c r="U32">
+        <v>0.01</v>
+      </c>
+      <c r="V32">
+        <v>0.01</v>
+      </c>
+      <c r="W32">
+        <v>0.01</v>
+      </c>
+      <c r="X32">
+        <v>0.01</v>
+      </c>
+      <c r="Y32">
+        <v>0.01</v>
+      </c>
+      <c r="Z32">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2929,8 +3770,32 @@
       <c r="R33">
         <v>8</v>
       </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
+      </c>
+      <c r="U33">
+        <v>8</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="W33">
+        <v>8</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>8</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2974,19 +3839,43 @@
         <v>0.35</v>
       </c>
       <c r="O34">
+        <v>0.35</v>
+      </c>
+      <c r="P34">
+        <v>0.35</v>
+      </c>
+      <c r="Q34">
+        <v>0.35</v>
+      </c>
+      <c r="R34">
+        <v>0.35</v>
+      </c>
+      <c r="S34">
+        <v>0.35</v>
+      </c>
+      <c r="T34">
+        <v>0.35</v>
+      </c>
+      <c r="U34">
+        <v>0.35</v>
+      </c>
+      <c r="V34">
+        <v>0.35</v>
+      </c>
+      <c r="W34">
         <v>0.2</v>
       </c>
-      <c r="P34">
+      <c r="X34">
         <v>0.2</v>
       </c>
-      <c r="Q34">
+      <c r="Y34">
         <v>0.2</v>
       </c>
-      <c r="R34">
+      <c r="Z34">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3030,19 +3919,43 @@
         <v>0.21</v>
       </c>
       <c r="O35">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="P35">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="R35">
+        <v>0.21</v>
+      </c>
+      <c r="S35">
+        <v>0.21</v>
+      </c>
+      <c r="T35">
+        <v>0.21</v>
+      </c>
+      <c r="U35">
+        <v>0.21</v>
+      </c>
+      <c r="V35">
+        <v>0.21</v>
+      </c>
+      <c r="W35">
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35">
+        <v>0.5</v>
+      </c>
+      <c r="Z35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3097,8 +4010,32 @@
       <c r="R36">
         <v>0</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3153,8 +4090,32 @@
       <c r="R37">
         <v>-0.1</v>
       </c>
+      <c r="S37">
+        <v>-0.1</v>
+      </c>
+      <c r="T37">
+        <v>-0.1</v>
+      </c>
+      <c r="U37">
+        <v>-0.1</v>
+      </c>
+      <c r="V37">
+        <v>-0.1</v>
+      </c>
+      <c r="W37">
+        <v>-0.1</v>
+      </c>
+      <c r="X37">
+        <v>-0.1</v>
+      </c>
+      <c r="Y37">
+        <v>-0.1</v>
+      </c>
+      <c r="Z37">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3209,8 +4170,32 @@
       <c r="R38">
         <v>-0.5</v>
       </c>
+      <c r="S38">
+        <v>-0.5</v>
+      </c>
+      <c r="T38">
+        <v>-0.5</v>
+      </c>
+      <c r="U38">
+        <v>-0.5</v>
+      </c>
+      <c r="V38">
+        <v>-0.5</v>
+      </c>
+      <c r="W38">
+        <v>-0.5</v>
+      </c>
+      <c r="X38">
+        <v>-0.5</v>
+      </c>
+      <c r="Y38">
+        <v>-0.5</v>
+      </c>
+      <c r="Z38">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3265,8 +4250,32 @@
       <c r="R39">
         <v>0</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3321,8 +4330,32 @@
       <c r="R40">
         <v>0.5</v>
       </c>
+      <c r="S40">
+        <v>0.5</v>
+      </c>
+      <c r="T40">
+        <v>0.5</v>
+      </c>
+      <c r="U40">
+        <v>0.5</v>
+      </c>
+      <c r="V40">
+        <v>0.5</v>
+      </c>
+      <c r="W40">
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+      <c r="Y40">
+        <v>0.5</v>
+      </c>
+      <c r="Z40">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3377,8 +4410,32 @@
       <c r="R41">
         <v>0.2</v>
       </c>
+      <c r="S41">
+        <v>0.2</v>
+      </c>
+      <c r="T41">
+        <v>0.2</v>
+      </c>
+      <c r="U41">
+        <v>0.2</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.2</v>
+      </c>
+      <c r="X41">
+        <v>0.2</v>
+      </c>
+      <c r="Y41">
+        <v>0.2</v>
+      </c>
+      <c r="Z41">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -3433,8 +4490,32 @@
       <c r="R42">
         <v>0.1</v>
       </c>
+      <c r="S42">
+        <v>0.1</v>
+      </c>
+      <c r="T42">
+        <v>0.1</v>
+      </c>
+      <c r="U42">
+        <v>0.1</v>
+      </c>
+      <c r="V42">
+        <v>0.1</v>
+      </c>
+      <c r="W42">
+        <v>0.1</v>
+      </c>
+      <c r="X42">
+        <v>0.1</v>
+      </c>
+      <c r="Y42">
+        <v>0.1</v>
+      </c>
+      <c r="Z42">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3489,8 +4570,32 @@
       <c r="R43">
         <v>0.7</v>
       </c>
+      <c r="S43">
+        <v>0.7</v>
+      </c>
+      <c r="T43">
+        <v>0.7</v>
+      </c>
+      <c r="U43">
+        <v>0.7</v>
+      </c>
+      <c r="V43">
+        <v>0.7</v>
+      </c>
+      <c r="W43">
+        <v>0.7</v>
+      </c>
+      <c r="X43">
+        <v>0.7</v>
+      </c>
+      <c r="Y43">
+        <v>0.7</v>
+      </c>
+      <c r="Z43">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3545,8 +4650,32 @@
       <c r="R44">
         <v>0.1</v>
       </c>
+      <c r="S44">
+        <v>0.1</v>
+      </c>
+      <c r="T44">
+        <v>0.1</v>
+      </c>
+      <c r="U44">
+        <v>0.1</v>
+      </c>
+      <c r="V44">
+        <v>0.1</v>
+      </c>
+      <c r="W44">
+        <v>0.1</v>
+      </c>
+      <c r="X44">
+        <v>0.1</v>
+      </c>
+      <c r="Y44">
+        <v>0.1</v>
+      </c>
+      <c r="Z44">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3601,8 +4730,32 @@
       <c r="R45">
         <v>0.4</v>
       </c>
+      <c r="S45">
+        <v>0.4</v>
+      </c>
+      <c r="T45">
+        <v>0.4</v>
+      </c>
+      <c r="U45">
+        <v>0.4</v>
+      </c>
+      <c r="V45">
+        <v>0.4</v>
+      </c>
+      <c r="W45">
+        <v>0.4</v>
+      </c>
+      <c r="X45">
+        <v>0.4</v>
+      </c>
+      <c r="Y45">
+        <v>0.4</v>
+      </c>
+      <c r="Z45">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3657,8 +4810,32 @@
       <c r="R46">
         <v>0</v>
       </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3713,8 +4890,32 @@
       <c r="R47">
         <v>0</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3769,8 +4970,32 @@
       <c r="R48">
         <v>0</v>
       </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3823,10 +5048,195 @@
         <v>0</v>
       </c>
       <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/defaults.xlsx
+++ b/data/defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatchr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52E69A2-1F62-4F20-A3C8-93192FBE82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B15458-E6A3-4A61-909C-27B0DF15D598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="1500" windowWidth="31090" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="defaults" sheetId="1" r:id="rId1"/>
@@ -783,8 +783,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1143,7 +1144,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="C6" sqref="C6:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,76 +1484,76 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="D5">
-        <v>1.17</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E5">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="F5">
-        <v>1.19</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G5">
-        <v>0.56999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="H5">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="I5">
-        <v>1.1599999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="J5">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="M5">
-        <v>1.22</v>
-      </c>
-      <c r="N5">
-        <v>1.92</v>
+        <v>1.2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.86</v>
       </c>
       <c r="O5">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="P5">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="Q5">
-        <v>0.441</v>
+        <v>0.43</v>
       </c>
       <c r="R5">
-        <v>0.76400000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S5">
-        <v>0.50700000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="T5">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="U5">
-        <v>0.624</v>
+        <v>0.59</v>
       </c>
       <c r="V5">
-        <v>0.97599999999999998</v>
+        <v>0.94</v>
       </c>
       <c r="W5">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="Y5">
-        <v>2.5499999999999998</v>
+        <v>2.65</v>
       </c>
       <c r="Z5">
-        <v>1.0900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
@@ -1563,76 +1564,76 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="D6">
-        <v>1.17</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E6">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="F6">
-        <v>1.19</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G6">
-        <v>0.56999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="H6">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="I6">
-        <v>1.1599999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="J6">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="K6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="M6">
-        <v>1.22</v>
-      </c>
-      <c r="N6">
-        <v>1.92</v>
+        <v>1.2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.86</v>
       </c>
       <c r="O6">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="P6">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="Q6">
-        <v>0.441</v>
+        <v>0.43</v>
       </c>
       <c r="R6">
-        <v>0.76400000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S6">
-        <v>0.50700000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="T6">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="U6">
-        <v>0.624</v>
+        <v>0.59</v>
       </c>
       <c r="V6">
-        <v>0.97599999999999998</v>
+        <v>0.94</v>
       </c>
       <c r="W6">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="X6">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="Y6">
-        <v>2.5499999999999998</v>
+        <v>2.65</v>
       </c>
       <c r="Z6">
-        <v>1.0900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
@@ -5237,6 +5238,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>